--- a/project/code/clusteringvsfolding.xlsx
+++ b/project/code/clusteringvsfolding.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="13">
   <si>
     <t>clustering</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>americasProblem</t>
+  </si>
+  <si>
+    <t>obj value</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ37"/>
+  <dimension ref="A1:BA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C31" sqref="C31:AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +392,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -397,7 +400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -405,7 +408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -416,10 +419,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -430,25 +436,25 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.73076923076922995</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -460,13 +466,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -475,73 +481,73 @@
         <v>2</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>2</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>2</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>2</v>
@@ -550,34 +556,37 @@
         <v>2</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS5">
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>2</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -588,7 +597,7 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.44230769230769301</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -597,37 +606,37 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -654,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -734,8 +743,11 @@
       <c r="AZ6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -746,19 +758,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.71153846153846101</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -770,94 +782,94 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -866,34 +878,37 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -904,43 +919,43 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -949,28 +964,28 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -979,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -997,61 +1012,64 @@
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1062,43 +1080,43 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.66346153846153799</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1110,25 +1128,25 @@
         <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1137,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1149,22 +1167,22 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>1</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1173,43 +1191,46 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1220,13 +1241,13 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.68269230769230804</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1241,64 +1262,64 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1307,28 +1328,28 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>1</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -1337,37 +1358,40 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1378,22 +1402,22 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.63461538461538503</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1402,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1417,34 +1441,34 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1453,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1465,49 +1489,49 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11">
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -1516,16 +1540,19 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1552,6 +1579,9 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1566,82 +1596,82 @@
         <v>49</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0.96153846153846001</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18">
         <v>3</v>
@@ -1724,19 +1754,19 @@
         <v>49</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.57692307692307698</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1745,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1754,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -1769,22 +1799,22 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>3</v>
@@ -1796,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -1882,82 +1912,82 @@
         <v>47</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.96153846153846001</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2040,82 +2070,82 @@
         <v>48</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.96153846153846001</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -2198,82 +2228,82 @@
         <v>45</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.94230769230769096</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -2356,82 +2386,82 @@
         <v>43</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.93269230769230704</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2514,82 +2544,82 @@
         <v>41</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.94230769230769096</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2688,6 +2718,9 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2702,82 +2735,82 @@
         <v>49</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
         <v>4</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>4</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
       <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
       <c r="P31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
         <v>4</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
       <c r="T31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
         <v>4</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
       <c r="Z31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
         <v>4</v>
       </c>
-      <c r="AB31">
-        <v>3</v>
-      </c>
       <c r="AC31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD31">
         <v>3</v>
@@ -2860,28 +2893,28 @@
         <v>49</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>4</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2890,49 +2923,49 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>3</v>
       </c>
       <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
         <v>4</v>
       </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
       <c r="R32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32">
         <v>3</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>4</v>
       </c>
       <c r="AA32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC32">
         <v>1</v>
@@ -3018,82 +3051,82 @@
         <v>49</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD33">
         <v>3</v>
@@ -3176,82 +3209,82 @@
         <v>49</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>2</v>
       </c>
       <c r="AC34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -3334,82 +3367,82 @@
         <v>46</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0.99038461538461398</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD35">
         <v>2</v>
@@ -3492,82 +3525,82 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD36">
         <v>2</v>
@@ -3650,82 +3683,82 @@
         <v>43</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>0.99038461538461398</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD37">
         <v>2</v>
@@ -3807,15 +3840,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3831,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3842,10 +3875,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3856,22 +3892,22 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.76315789473684204</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3880,37 +3916,37 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>2</v>
@@ -3919,16 +3955,19 @@
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3939,25 +3978,25 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0.394736842105263</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -3966,19 +4005,19 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -4008,10 +4047,13 @@
         <v>2</v>
       </c>
       <c r="AA6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4022,67 +4064,67 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.71052631578947301</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -4093,8 +4135,11 @@
       <c r="AA7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4105,22 +4150,22 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.73684210526315697</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4129,55 +4174,58 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4188,22 +4236,22 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.71052631578947301</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4212,55 +4260,58 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4271,37 +4322,37 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.65789473684210498</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -4310,40 +4361,43 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4354,79 +4408,82 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.68421052631578905</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -4442,7 +4499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4453,10 +4510,13 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4467,79 +4527,82 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0.97368421052631504</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>3</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y18">
         <v>2</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4613,7 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0.60526315789473695</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4559,37 +4622,37 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -4598,16 +4661,16 @@
         <v>3</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>3</v>
@@ -4616,13 +4679,16 @@
         <v>3</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4633,79 +4699,82 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4716,79 +4785,82 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4799,79 +4871,82 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4882,79 +4957,82 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.97368421052631504</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>2</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4965,79 +5043,82 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>2</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5045,7 +5126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -5064,10 +5145,13 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5078,79 +5162,82 @@
         <v>24</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>4</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
       <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
         <v>4</v>
       </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
         <v>4</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
         <v>4</v>
       </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
       <c r="T31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
         <v>4</v>
       </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
       <c r="W31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
         <v>4</v>
       </c>
-      <c r="Y31">
-        <v>2</v>
-      </c>
       <c r="Z31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5161,28 +5248,28 @@
         <v>24</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0.71052631578947301</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
         <v>4</v>
       </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
       <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -5191,49 +5278,52 @@
         <v>3</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32">
         <v>4</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>4</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA32">
+        <v>3</v>
+      </c>
+      <c r="AB32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -5244,79 +5334,82 @@
         <v>24</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>2</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -5327,79 +5420,82 @@
         <v>24</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -5410,79 +5506,82 @@
         <v>24</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -5493,79 +5592,82 @@
         <v>24</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5576,75 +5678,78 @@
         <v>24</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
         <v>3</v>
       </c>
     </row>

--- a/project/code/clusteringvsfolding.xlsx
+++ b/project/code/clusteringvsfolding.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="africaProblem" sheetId="1" r:id="rId1"/>
     <sheet name="americasProblem" sheetId="2" r:id="rId2"/>
+    <sheet name="pigeonhole" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="20">
   <si>
     <t>clustering</t>
   </si>
@@ -64,6 +65,27 @@
   </si>
   <si>
     <t>obj value</t>
+  </si>
+  <si>
+    <t>sanity check</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>vars</t>
+  </si>
+  <si>
+    <t>Gurobi vars</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>boxes</t>
+  </si>
+  <si>
+    <t>pigeon hole problem</t>
   </si>
 </sst>
 </file>
@@ -3842,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:AB37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5756,4 +5778,9764 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FM86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>572</v>
+      </c>
+      <c r="B3">
+        <v>165</v>
+      </c>
+      <c r="C3">
+        <f>A3*2^3+B3*2</f>
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0.625</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0.625</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>0.3</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0.875</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.4</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0.875</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0.875</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>0.875</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0.7</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>0.875</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>0.58974358974359098</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>2</v>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>2</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>0.65384615384615496</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>2</v>
+      </c>
+      <c r="AE39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <v>2</v>
+      </c>
+      <c r="AH39">
+        <v>2</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>2</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>0.3</v>
+      </c>
+      <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>0.974358974358977</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>0.974358974358977</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>0.974358974358977</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>0.6</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>0.974358974358977</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0.7</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>0.96153846153846501</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <v>0.43</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>2</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1</v>
+      </c>
+      <c r="AS52">
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <v>2</v>
+      </c>
+      <c r="AU52">
+        <v>1</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>2</v>
+      </c>
+      <c r="AZ52">
+        <v>1</v>
+      </c>
+      <c r="BA52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>1</v>
+      </c>
+      <c r="BD52">
+        <v>1</v>
+      </c>
+      <c r="BE52">
+        <v>1</v>
+      </c>
+      <c r="BF52">
+        <v>2</v>
+      </c>
+      <c r="BG52">
+        <v>1</v>
+      </c>
+      <c r="BH52">
+        <v>1</v>
+      </c>
+      <c r="BI52">
+        <v>2</v>
+      </c>
+      <c r="BJ52">
+        <v>2</v>
+      </c>
+      <c r="BK52">
+        <v>1</v>
+      </c>
+      <c r="BL52">
+        <v>1</v>
+      </c>
+      <c r="BM52">
+        <v>2</v>
+      </c>
+      <c r="BN52">
+        <v>1</v>
+      </c>
+      <c r="BO52">
+        <v>1</v>
+      </c>
+      <c r="BP52">
+        <v>2</v>
+      </c>
+      <c r="BQ52">
+        <v>1</v>
+      </c>
+      <c r="BR52">
+        <v>1</v>
+      </c>
+      <c r="BS52">
+        <v>1</v>
+      </c>
+      <c r="BT52">
+        <v>1</v>
+      </c>
+      <c r="BU52">
+        <v>2</v>
+      </c>
+      <c r="BV52">
+        <v>1</v>
+      </c>
+      <c r="BW52">
+        <v>2</v>
+      </c>
+      <c r="BX52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <v>0.78</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>2</v>
+      </c>
+      <c r="AF53">
+        <v>2</v>
+      </c>
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53">
+        <v>2</v>
+      </c>
+      <c r="AI53">
+        <v>2</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>2</v>
+      </c>
+      <c r="AS53">
+        <v>1</v>
+      </c>
+      <c r="AT53">
+        <v>1</v>
+      </c>
+      <c r="AU53">
+        <v>2</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>2</v>
+      </c>
+      <c r="AY53">
+        <v>2</v>
+      </c>
+      <c r="AZ53">
+        <v>2</v>
+      </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>2</v>
+      </c>
+      <c r="BD53">
+        <v>2</v>
+      </c>
+      <c r="BE53">
+        <v>2</v>
+      </c>
+      <c r="BF53">
+        <v>2</v>
+      </c>
+      <c r="BG53">
+        <v>2</v>
+      </c>
+      <c r="BH53">
+        <v>2</v>
+      </c>
+      <c r="BI53">
+        <v>2</v>
+      </c>
+      <c r="BJ53">
+        <v>2</v>
+      </c>
+      <c r="BK53">
+        <v>2</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
+        <v>2</v>
+      </c>
+      <c r="BN53">
+        <v>2</v>
+      </c>
+      <c r="BO53">
+        <v>2</v>
+      </c>
+      <c r="BP53">
+        <v>2</v>
+      </c>
+      <c r="BQ53">
+        <v>2</v>
+      </c>
+      <c r="BR53">
+        <v>2</v>
+      </c>
+      <c r="BS53">
+        <v>2</v>
+      </c>
+      <c r="BT53">
+        <v>2</v>
+      </c>
+      <c r="BU53">
+        <v>2</v>
+      </c>
+      <c r="BV53">
+        <v>1</v>
+      </c>
+      <c r="BW53">
+        <v>2</v>
+      </c>
+      <c r="BX53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0.3</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>0.99000000000000099</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>1</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>1</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>1</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>1</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>1</v>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
+      </c>
+      <c r="BV54">
+        <v>0</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0.4</v>
+      </c>
+      <c r="C55">
+        <v>41</v>
+      </c>
+      <c r="D55">
+        <v>0.98000000000000098</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>1</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>1</v>
+      </c>
+      <c r="BG55">
+        <v>1</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>1</v>
+      </c>
+      <c r="BP55">
+        <v>1</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
+      <c r="BT55">
+        <v>0</v>
+      </c>
+      <c r="BU55">
+        <v>1</v>
+      </c>
+      <c r="BV55">
+        <v>1</v>
+      </c>
+      <c r="BW55">
+        <v>0</v>
+      </c>
+      <c r="BX55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>0.98000000000000098</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>1</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>1</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>1</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>1</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>1</v>
+      </c>
+      <c r="BP56">
+        <v>1</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>1</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>0.6</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>0.98000000000000098</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>1</v>
+      </c>
+      <c r="BA57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>1</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>1</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>1</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
+      <c r="BT57">
+        <v>0</v>
+      </c>
+      <c r="BU57">
+        <v>1</v>
+      </c>
+      <c r="BV57">
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>0.7</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>0.97000000000000097</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>1</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>1</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <v>1</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>1</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>1</v>
+      </c>
+      <c r="BK58">
+        <v>1</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>1</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
+      <c r="BR58">
+        <v>0</v>
+      </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+      <c r="BV58">
+        <v>1</v>
+      </c>
+      <c r="BW58">
+        <v>0</v>
+      </c>
+      <c r="BX58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>140</v>
+      </c>
+      <c r="D66">
+        <v>0.34883720930232198</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>2</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>2</v>
+      </c>
+      <c r="AU66">
+        <v>1</v>
+      </c>
+      <c r="AV66">
+        <v>1</v>
+      </c>
+      <c r="AW66">
+        <v>1</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>1</v>
+      </c>
+      <c r="AZ66">
+        <v>2</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>1</v>
+      </c>
+      <c r="BD66">
+        <v>1</v>
+      </c>
+      <c r="BE66">
+        <v>1</v>
+      </c>
+      <c r="BF66">
+        <v>2</v>
+      </c>
+      <c r="BG66">
+        <v>1</v>
+      </c>
+      <c r="BH66">
+        <v>1</v>
+      </c>
+      <c r="BI66">
+        <v>1</v>
+      </c>
+      <c r="BJ66">
+        <v>1</v>
+      </c>
+      <c r="BK66">
+        <v>1</v>
+      </c>
+      <c r="BL66">
+        <v>1</v>
+      </c>
+      <c r="BM66">
+        <v>1</v>
+      </c>
+      <c r="BN66">
+        <v>1</v>
+      </c>
+      <c r="BO66">
+        <v>1</v>
+      </c>
+      <c r="BP66">
+        <v>1</v>
+      </c>
+      <c r="BQ66">
+        <v>1</v>
+      </c>
+      <c r="BR66">
+        <v>1</v>
+      </c>
+      <c r="BS66">
+        <v>2</v>
+      </c>
+      <c r="BT66">
+        <v>1</v>
+      </c>
+      <c r="BU66">
+        <v>1</v>
+      </c>
+      <c r="BV66">
+        <v>1</v>
+      </c>
+      <c r="BW66">
+        <v>1</v>
+      </c>
+      <c r="BX66">
+        <v>1</v>
+      </c>
+      <c r="BY66">
+        <v>2</v>
+      </c>
+      <c r="BZ66">
+        <v>1</v>
+      </c>
+      <c r="CA66">
+        <v>1</v>
+      </c>
+      <c r="CB66">
+        <v>1</v>
+      </c>
+      <c r="CC66">
+        <v>1</v>
+      </c>
+      <c r="CD66">
+        <v>1</v>
+      </c>
+      <c r="CE66">
+        <v>1</v>
+      </c>
+      <c r="CF66">
+        <v>1</v>
+      </c>
+      <c r="CG66">
+        <v>2</v>
+      </c>
+      <c r="CH66">
+        <v>1</v>
+      </c>
+      <c r="CI66">
+        <v>1</v>
+      </c>
+      <c r="CJ66">
+        <v>1</v>
+      </c>
+      <c r="CK66">
+        <v>2</v>
+      </c>
+      <c r="CL66">
+        <v>1</v>
+      </c>
+      <c r="CM66">
+        <v>1</v>
+      </c>
+      <c r="CN66">
+        <v>1</v>
+      </c>
+      <c r="CO66">
+        <v>2</v>
+      </c>
+      <c r="CP66">
+        <v>1</v>
+      </c>
+      <c r="CQ66">
+        <v>1</v>
+      </c>
+      <c r="CR66">
+        <v>2</v>
+      </c>
+      <c r="CS66">
+        <v>1</v>
+      </c>
+      <c r="CT66">
+        <v>1</v>
+      </c>
+      <c r="CU66">
+        <v>1</v>
+      </c>
+      <c r="CV66">
+        <v>2</v>
+      </c>
+      <c r="CW66">
+        <v>1</v>
+      </c>
+      <c r="CX66">
+        <v>2</v>
+      </c>
+      <c r="CY66">
+        <v>1</v>
+      </c>
+      <c r="CZ66">
+        <v>1</v>
+      </c>
+      <c r="DA66">
+        <v>2</v>
+      </c>
+      <c r="DB66">
+        <v>1</v>
+      </c>
+      <c r="DC66">
+        <v>1</v>
+      </c>
+      <c r="DD66">
+        <v>2</v>
+      </c>
+      <c r="DE66">
+        <v>2</v>
+      </c>
+      <c r="DF66">
+        <v>1</v>
+      </c>
+      <c r="DG66">
+        <v>1</v>
+      </c>
+      <c r="DH66">
+        <v>1</v>
+      </c>
+      <c r="DI66">
+        <v>2</v>
+      </c>
+      <c r="DJ66">
+        <v>1</v>
+      </c>
+      <c r="DK66">
+        <v>2</v>
+      </c>
+      <c r="DL66">
+        <v>1</v>
+      </c>
+      <c r="DM66">
+        <v>1</v>
+      </c>
+      <c r="DN66">
+        <v>1</v>
+      </c>
+      <c r="DO66">
+        <v>2</v>
+      </c>
+      <c r="DP66">
+        <v>1</v>
+      </c>
+      <c r="DQ66">
+        <v>1</v>
+      </c>
+      <c r="DR66">
+        <v>1</v>
+      </c>
+      <c r="DS66">
+        <v>1</v>
+      </c>
+      <c r="DT66">
+        <v>2</v>
+      </c>
+      <c r="DU66">
+        <v>1</v>
+      </c>
+      <c r="DV66">
+        <v>2</v>
+      </c>
+      <c r="DW66">
+        <v>1</v>
+      </c>
+      <c r="DX66">
+        <v>1</v>
+      </c>
+      <c r="DY66">
+        <v>2</v>
+      </c>
+      <c r="DZ66">
+        <v>1</v>
+      </c>
+      <c r="EA66">
+        <v>1</v>
+      </c>
+      <c r="EB66">
+        <v>2</v>
+      </c>
+      <c r="EC66">
+        <v>1</v>
+      </c>
+      <c r="ED66">
+        <v>2</v>
+      </c>
+      <c r="EE66">
+        <v>1</v>
+      </c>
+      <c r="EF66">
+        <v>1</v>
+      </c>
+      <c r="EG66">
+        <v>2</v>
+      </c>
+      <c r="EH66">
+        <v>1</v>
+      </c>
+      <c r="EI66">
+        <v>1</v>
+      </c>
+      <c r="EJ66">
+        <v>2</v>
+      </c>
+      <c r="EK66">
+        <v>1</v>
+      </c>
+      <c r="EL66">
+        <v>1</v>
+      </c>
+      <c r="EM66">
+        <v>2</v>
+      </c>
+      <c r="EN66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>140</v>
+      </c>
+      <c r="D67">
+        <v>0.78139534883719797</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <v>2</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>2</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>2</v>
+      </c>
+      <c r="AL67">
+        <v>2</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>2</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
+      <c r="AU67">
+        <v>1</v>
+      </c>
+      <c r="AV67">
+        <v>1</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AX67">
+        <v>2</v>
+      </c>
+      <c r="AY67">
+        <v>1</v>
+      </c>
+      <c r="AZ67">
+        <v>2</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>1</v>
+      </c>
+      <c r="BD67">
+        <v>1</v>
+      </c>
+      <c r="BE67">
+        <v>2</v>
+      </c>
+      <c r="BF67">
+        <v>2</v>
+      </c>
+      <c r="BG67">
+        <v>2</v>
+      </c>
+      <c r="BH67">
+        <v>2</v>
+      </c>
+      <c r="BI67">
+        <v>2</v>
+      </c>
+      <c r="BJ67">
+        <v>2</v>
+      </c>
+      <c r="BK67">
+        <v>2</v>
+      </c>
+      <c r="BL67">
+        <v>2</v>
+      </c>
+      <c r="BM67">
+        <v>1</v>
+      </c>
+      <c r="BN67">
+        <v>1</v>
+      </c>
+      <c r="BO67">
+        <v>1</v>
+      </c>
+      <c r="BP67">
+        <v>1</v>
+      </c>
+      <c r="BQ67">
+        <v>1</v>
+      </c>
+      <c r="BR67">
+        <v>2</v>
+      </c>
+      <c r="BS67">
+        <v>1</v>
+      </c>
+      <c r="BT67">
+        <v>2</v>
+      </c>
+      <c r="BU67">
+        <v>2</v>
+      </c>
+      <c r="BV67">
+        <v>2</v>
+      </c>
+      <c r="BW67">
+        <v>1</v>
+      </c>
+      <c r="BX67">
+        <v>1</v>
+      </c>
+      <c r="BY67">
+        <v>1</v>
+      </c>
+      <c r="BZ67">
+        <v>2</v>
+      </c>
+      <c r="CA67">
+        <v>2</v>
+      </c>
+      <c r="CB67">
+        <v>2</v>
+      </c>
+      <c r="CC67">
+        <v>1</v>
+      </c>
+      <c r="CD67">
+        <v>2</v>
+      </c>
+      <c r="CE67">
+        <v>2</v>
+      </c>
+      <c r="CF67">
+        <v>2</v>
+      </c>
+      <c r="CG67">
+        <v>1</v>
+      </c>
+      <c r="CH67">
+        <v>2</v>
+      </c>
+      <c r="CI67">
+        <v>1</v>
+      </c>
+      <c r="CJ67">
+        <v>1</v>
+      </c>
+      <c r="CK67">
+        <v>2</v>
+      </c>
+      <c r="CL67">
+        <v>2</v>
+      </c>
+      <c r="CM67">
+        <v>1</v>
+      </c>
+      <c r="CN67">
+        <v>1</v>
+      </c>
+      <c r="CO67">
+        <v>1</v>
+      </c>
+      <c r="CP67">
+        <v>1</v>
+      </c>
+      <c r="CQ67">
+        <v>2</v>
+      </c>
+      <c r="CR67">
+        <v>2</v>
+      </c>
+      <c r="CS67">
+        <v>1</v>
+      </c>
+      <c r="CT67">
+        <v>1</v>
+      </c>
+      <c r="CU67">
+        <v>1</v>
+      </c>
+      <c r="CV67">
+        <v>1</v>
+      </c>
+      <c r="CW67">
+        <v>2</v>
+      </c>
+      <c r="CX67">
+        <v>2</v>
+      </c>
+      <c r="CY67">
+        <v>1</v>
+      </c>
+      <c r="CZ67">
+        <v>1</v>
+      </c>
+      <c r="DA67">
+        <v>1</v>
+      </c>
+      <c r="DB67">
+        <v>1</v>
+      </c>
+      <c r="DC67">
+        <v>2</v>
+      </c>
+      <c r="DD67">
+        <v>2</v>
+      </c>
+      <c r="DE67">
+        <v>1</v>
+      </c>
+      <c r="DF67">
+        <v>2</v>
+      </c>
+      <c r="DG67">
+        <v>1</v>
+      </c>
+      <c r="DH67">
+        <v>1</v>
+      </c>
+      <c r="DI67">
+        <v>2</v>
+      </c>
+      <c r="DJ67">
+        <v>2</v>
+      </c>
+      <c r="DK67">
+        <v>1</v>
+      </c>
+      <c r="DL67">
+        <v>2</v>
+      </c>
+      <c r="DM67">
+        <v>2</v>
+      </c>
+      <c r="DN67">
+        <v>2</v>
+      </c>
+      <c r="DO67">
+        <v>2</v>
+      </c>
+      <c r="DP67">
+        <v>2</v>
+      </c>
+      <c r="DQ67">
+        <v>1</v>
+      </c>
+      <c r="DR67">
+        <v>1</v>
+      </c>
+      <c r="DS67">
+        <v>1</v>
+      </c>
+      <c r="DT67">
+        <v>1</v>
+      </c>
+      <c r="DU67">
+        <v>2</v>
+      </c>
+      <c r="DV67">
+        <v>2</v>
+      </c>
+      <c r="DW67">
+        <v>1</v>
+      </c>
+      <c r="DX67">
+        <v>2</v>
+      </c>
+      <c r="DY67">
+        <v>2</v>
+      </c>
+      <c r="DZ67">
+        <v>2</v>
+      </c>
+      <c r="EA67">
+        <v>2</v>
+      </c>
+      <c r="EB67">
+        <v>2</v>
+      </c>
+      <c r="EC67">
+        <v>1</v>
+      </c>
+      <c r="ED67">
+        <v>2</v>
+      </c>
+      <c r="EE67">
+        <v>2</v>
+      </c>
+      <c r="EF67">
+        <v>2</v>
+      </c>
+      <c r="EG67">
+        <v>2</v>
+      </c>
+      <c r="EH67">
+        <v>2</v>
+      </c>
+      <c r="EI67">
+        <v>1</v>
+      </c>
+      <c r="EJ67">
+        <v>2</v>
+      </c>
+      <c r="EK67">
+        <v>2</v>
+      </c>
+      <c r="EL67">
+        <v>2</v>
+      </c>
+      <c r="EM67">
+        <v>2</v>
+      </c>
+      <c r="EN67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.3</v>
+      </c>
+      <c r="C68">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>0.98837209302323903</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>1</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>1</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>0</v>
+      </c>
+      <c r="BR68">
+        <v>0</v>
+      </c>
+      <c r="BS68">
+        <v>1</v>
+      </c>
+      <c r="BT68">
+        <v>0</v>
+      </c>
+      <c r="BU68">
+        <v>1</v>
+      </c>
+      <c r="BV68">
+        <v>0</v>
+      </c>
+      <c r="BW68">
+        <v>0</v>
+      </c>
+      <c r="BX68">
+        <v>0</v>
+      </c>
+      <c r="BY68">
+        <v>0</v>
+      </c>
+      <c r="BZ68">
+        <v>0</v>
+      </c>
+      <c r="CA68">
+        <v>0</v>
+      </c>
+      <c r="CB68">
+        <v>0</v>
+      </c>
+      <c r="CC68">
+        <v>0</v>
+      </c>
+      <c r="CD68">
+        <v>0</v>
+      </c>
+      <c r="CE68">
+        <v>0</v>
+      </c>
+      <c r="CF68">
+        <v>1</v>
+      </c>
+      <c r="CG68">
+        <v>0</v>
+      </c>
+      <c r="CH68">
+        <v>0</v>
+      </c>
+      <c r="CI68">
+        <v>0</v>
+      </c>
+      <c r="CJ68">
+        <v>0</v>
+      </c>
+      <c r="CK68">
+        <v>0</v>
+      </c>
+      <c r="CL68">
+        <v>0</v>
+      </c>
+      <c r="CM68">
+        <v>0</v>
+      </c>
+      <c r="CN68">
+        <v>0</v>
+      </c>
+      <c r="CO68">
+        <v>1</v>
+      </c>
+      <c r="CP68">
+        <v>0</v>
+      </c>
+      <c r="CQ68">
+        <v>0</v>
+      </c>
+      <c r="CR68">
+        <v>0</v>
+      </c>
+      <c r="CS68">
+        <v>0</v>
+      </c>
+      <c r="CT68">
+        <v>0</v>
+      </c>
+      <c r="CU68">
+        <v>0</v>
+      </c>
+      <c r="CV68">
+        <v>0</v>
+      </c>
+      <c r="CW68">
+        <v>0</v>
+      </c>
+      <c r="CX68">
+        <v>0</v>
+      </c>
+      <c r="CY68">
+        <v>0</v>
+      </c>
+      <c r="CZ68">
+        <v>0</v>
+      </c>
+      <c r="DA68">
+        <v>1</v>
+      </c>
+      <c r="DB68">
+        <v>0</v>
+      </c>
+      <c r="DC68">
+        <v>0</v>
+      </c>
+      <c r="DD68">
+        <v>1</v>
+      </c>
+      <c r="DE68">
+        <v>1</v>
+      </c>
+      <c r="DF68">
+        <v>0</v>
+      </c>
+      <c r="DG68">
+        <v>0</v>
+      </c>
+      <c r="DH68">
+        <v>0</v>
+      </c>
+      <c r="DI68">
+        <v>1</v>
+      </c>
+      <c r="DJ68">
+        <v>0</v>
+      </c>
+      <c r="DK68">
+        <v>0</v>
+      </c>
+      <c r="DL68">
+        <v>0</v>
+      </c>
+      <c r="DM68">
+        <v>0</v>
+      </c>
+      <c r="DN68">
+        <v>0</v>
+      </c>
+      <c r="DO68">
+        <v>0</v>
+      </c>
+      <c r="DP68">
+        <v>0</v>
+      </c>
+      <c r="DQ68">
+        <v>1</v>
+      </c>
+      <c r="DR68">
+        <v>0</v>
+      </c>
+      <c r="DS68">
+        <v>0</v>
+      </c>
+      <c r="DT68">
+        <v>1</v>
+      </c>
+      <c r="DU68">
+        <v>0</v>
+      </c>
+      <c r="DV68">
+        <v>1</v>
+      </c>
+      <c r="DW68">
+        <v>0</v>
+      </c>
+      <c r="DX68">
+        <v>1</v>
+      </c>
+      <c r="DY68">
+        <v>0</v>
+      </c>
+      <c r="DZ68">
+        <v>0</v>
+      </c>
+      <c r="EA68">
+        <v>1</v>
+      </c>
+      <c r="EB68">
+        <v>0</v>
+      </c>
+      <c r="EC68">
+        <v>0</v>
+      </c>
+      <c r="ED68">
+        <v>0</v>
+      </c>
+      <c r="EE68">
+        <v>0</v>
+      </c>
+      <c r="EF68">
+        <v>1</v>
+      </c>
+      <c r="EG68">
+        <v>0</v>
+      </c>
+      <c r="EH68">
+        <v>1</v>
+      </c>
+      <c r="EI68">
+        <v>0</v>
+      </c>
+      <c r="EJ68">
+        <v>0</v>
+      </c>
+      <c r="EK68">
+        <v>0</v>
+      </c>
+      <c r="EL68">
+        <v>1</v>
+      </c>
+      <c r="EM68">
+        <v>0</v>
+      </c>
+      <c r="EN68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.4</v>
+      </c>
+      <c r="C69">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>0.98139534883719304</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>1</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>1</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+      <c r="BQ69">
+        <v>0</v>
+      </c>
+      <c r="BR69">
+        <v>0</v>
+      </c>
+      <c r="BS69">
+        <v>0</v>
+      </c>
+      <c r="BT69">
+        <v>0</v>
+      </c>
+      <c r="BU69">
+        <v>0</v>
+      </c>
+      <c r="BV69">
+        <v>1</v>
+      </c>
+      <c r="BW69">
+        <v>0</v>
+      </c>
+      <c r="BX69">
+        <v>0</v>
+      </c>
+      <c r="BY69">
+        <v>1</v>
+      </c>
+      <c r="BZ69">
+        <v>0</v>
+      </c>
+      <c r="CA69">
+        <v>0</v>
+      </c>
+      <c r="CB69">
+        <v>0</v>
+      </c>
+      <c r="CC69">
+        <v>0</v>
+      </c>
+      <c r="CD69">
+        <v>0</v>
+      </c>
+      <c r="CE69">
+        <v>0</v>
+      </c>
+      <c r="CF69">
+        <v>0</v>
+      </c>
+      <c r="CG69">
+        <v>0</v>
+      </c>
+      <c r="CH69">
+        <v>0</v>
+      </c>
+      <c r="CI69">
+        <v>0</v>
+      </c>
+      <c r="CJ69">
+        <v>0</v>
+      </c>
+      <c r="CK69">
+        <v>1</v>
+      </c>
+      <c r="CL69">
+        <v>0</v>
+      </c>
+      <c r="CM69">
+        <v>0</v>
+      </c>
+      <c r="CN69">
+        <v>0</v>
+      </c>
+      <c r="CO69">
+        <v>1</v>
+      </c>
+      <c r="CP69">
+        <v>0</v>
+      </c>
+      <c r="CQ69">
+        <v>0</v>
+      </c>
+      <c r="CR69">
+        <v>1</v>
+      </c>
+      <c r="CS69">
+        <v>0</v>
+      </c>
+      <c r="CT69">
+        <v>0</v>
+      </c>
+      <c r="CU69">
+        <v>0</v>
+      </c>
+      <c r="CV69">
+        <v>0</v>
+      </c>
+      <c r="CW69">
+        <v>0</v>
+      </c>
+      <c r="CX69">
+        <v>1</v>
+      </c>
+      <c r="CY69">
+        <v>0</v>
+      </c>
+      <c r="CZ69">
+        <v>0</v>
+      </c>
+      <c r="DA69">
+        <v>0</v>
+      </c>
+      <c r="DB69">
+        <v>0</v>
+      </c>
+      <c r="DC69">
+        <v>0</v>
+      </c>
+      <c r="DD69">
+        <v>0</v>
+      </c>
+      <c r="DE69">
+        <v>1</v>
+      </c>
+      <c r="DF69">
+        <v>0</v>
+      </c>
+      <c r="DG69">
+        <v>0</v>
+      </c>
+      <c r="DH69">
+        <v>0</v>
+      </c>
+      <c r="DI69">
+        <v>1</v>
+      </c>
+      <c r="DJ69">
+        <v>0</v>
+      </c>
+      <c r="DK69">
+        <v>0</v>
+      </c>
+      <c r="DL69">
+        <v>0</v>
+      </c>
+      <c r="DM69">
+        <v>0</v>
+      </c>
+      <c r="DN69">
+        <v>0</v>
+      </c>
+      <c r="DO69">
+        <v>0</v>
+      </c>
+      <c r="DP69">
+        <v>0</v>
+      </c>
+      <c r="DQ69">
+        <v>0</v>
+      </c>
+      <c r="DR69">
+        <v>1</v>
+      </c>
+      <c r="DS69">
+        <v>0</v>
+      </c>
+      <c r="DT69">
+        <v>0</v>
+      </c>
+      <c r="DU69">
+        <v>1</v>
+      </c>
+      <c r="DV69">
+        <v>0</v>
+      </c>
+      <c r="DW69">
+        <v>0</v>
+      </c>
+      <c r="DX69">
+        <v>0</v>
+      </c>
+      <c r="DY69">
+        <v>0</v>
+      </c>
+      <c r="DZ69">
+        <v>0</v>
+      </c>
+      <c r="EA69">
+        <v>0</v>
+      </c>
+      <c r="EB69">
+        <v>1</v>
+      </c>
+      <c r="EC69">
+        <v>0</v>
+      </c>
+      <c r="ED69">
+        <v>0</v>
+      </c>
+      <c r="EE69">
+        <v>1</v>
+      </c>
+      <c r="EF69">
+        <v>0</v>
+      </c>
+      <c r="EG69">
+        <v>0</v>
+      </c>
+      <c r="EH69">
+        <v>1</v>
+      </c>
+      <c r="EI69">
+        <v>0</v>
+      </c>
+      <c r="EJ69">
+        <v>0</v>
+      </c>
+      <c r="EK69">
+        <v>1</v>
+      </c>
+      <c r="EL69">
+        <v>0</v>
+      </c>
+      <c r="EM69">
+        <v>1</v>
+      </c>
+      <c r="EN69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
+      <c r="C70">
+        <v>42</v>
+      </c>
+      <c r="D70">
+        <v>0.98139534883719304</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>1</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>1</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+      <c r="BQ70">
+        <v>0</v>
+      </c>
+      <c r="BR70">
+        <v>0</v>
+      </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
+      <c r="BT70">
+        <v>0</v>
+      </c>
+      <c r="BU70">
+        <v>0</v>
+      </c>
+      <c r="BV70">
+        <v>0</v>
+      </c>
+      <c r="BW70">
+        <v>0</v>
+      </c>
+      <c r="BX70">
+        <v>0</v>
+      </c>
+      <c r="BY70">
+        <v>0</v>
+      </c>
+      <c r="BZ70">
+        <v>0</v>
+      </c>
+      <c r="CA70">
+        <v>0</v>
+      </c>
+      <c r="CB70">
+        <v>0</v>
+      </c>
+      <c r="CC70">
+        <v>0</v>
+      </c>
+      <c r="CD70">
+        <v>0</v>
+      </c>
+      <c r="CE70">
+        <v>0</v>
+      </c>
+      <c r="CF70">
+        <v>0</v>
+      </c>
+      <c r="CG70">
+        <v>0</v>
+      </c>
+      <c r="CH70">
+        <v>0</v>
+      </c>
+      <c r="CI70">
+        <v>0</v>
+      </c>
+      <c r="CJ70">
+        <v>0</v>
+      </c>
+      <c r="CK70">
+        <v>0</v>
+      </c>
+      <c r="CL70">
+        <v>0</v>
+      </c>
+      <c r="CM70">
+        <v>0</v>
+      </c>
+      <c r="CN70">
+        <v>0</v>
+      </c>
+      <c r="CO70">
+        <v>0</v>
+      </c>
+      <c r="CP70">
+        <v>0</v>
+      </c>
+      <c r="CQ70">
+        <v>0</v>
+      </c>
+      <c r="CR70">
+        <v>0</v>
+      </c>
+      <c r="CS70">
+        <v>0</v>
+      </c>
+      <c r="CT70">
+        <v>0</v>
+      </c>
+      <c r="CU70">
+        <v>0</v>
+      </c>
+      <c r="CV70">
+        <v>0</v>
+      </c>
+      <c r="CW70">
+        <v>0</v>
+      </c>
+      <c r="CX70">
+        <v>0</v>
+      </c>
+      <c r="CY70">
+        <v>0</v>
+      </c>
+      <c r="CZ70">
+        <v>0</v>
+      </c>
+      <c r="DA70">
+        <v>0</v>
+      </c>
+      <c r="DB70">
+        <v>0</v>
+      </c>
+      <c r="DC70">
+        <v>0</v>
+      </c>
+      <c r="DD70">
+        <v>0</v>
+      </c>
+      <c r="DE70">
+        <v>0</v>
+      </c>
+      <c r="DF70">
+        <v>0</v>
+      </c>
+      <c r="DG70">
+        <v>0</v>
+      </c>
+      <c r="DH70">
+        <v>0</v>
+      </c>
+      <c r="DI70">
+        <v>0</v>
+      </c>
+      <c r="DJ70">
+        <v>0</v>
+      </c>
+      <c r="DK70">
+        <v>0</v>
+      </c>
+      <c r="DL70">
+        <v>0</v>
+      </c>
+      <c r="DM70">
+        <v>0</v>
+      </c>
+      <c r="DN70">
+        <v>0</v>
+      </c>
+      <c r="DO70">
+        <v>0</v>
+      </c>
+      <c r="DP70">
+        <v>0</v>
+      </c>
+      <c r="DQ70">
+        <v>1</v>
+      </c>
+      <c r="DR70">
+        <v>0</v>
+      </c>
+      <c r="DS70">
+        <v>0</v>
+      </c>
+      <c r="DT70">
+        <v>0</v>
+      </c>
+      <c r="DU70">
+        <v>1</v>
+      </c>
+      <c r="DV70">
+        <v>0</v>
+      </c>
+      <c r="DW70">
+        <v>1</v>
+      </c>
+      <c r="DX70">
+        <v>1</v>
+      </c>
+      <c r="DY70">
+        <v>0</v>
+      </c>
+      <c r="DZ70">
+        <v>0</v>
+      </c>
+      <c r="EA70">
+        <v>1</v>
+      </c>
+      <c r="EB70">
+        <v>0</v>
+      </c>
+      <c r="EC70">
+        <v>0</v>
+      </c>
+      <c r="ED70">
+        <v>0</v>
+      </c>
+      <c r="EE70">
+        <v>0</v>
+      </c>
+      <c r="EF70">
+        <v>0</v>
+      </c>
+      <c r="EG70">
+        <v>0</v>
+      </c>
+      <c r="EH70">
+        <v>0</v>
+      </c>
+      <c r="EI70">
+        <v>0</v>
+      </c>
+      <c r="EJ70">
+        <v>0</v>
+      </c>
+      <c r="EK70">
+        <v>1</v>
+      </c>
+      <c r="EL70">
+        <v>0</v>
+      </c>
+      <c r="EM70">
+        <v>0</v>
+      </c>
+      <c r="EN70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>0.6</v>
+      </c>
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>0.97906976744184404</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>1</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+      <c r="BQ71">
+        <v>0</v>
+      </c>
+      <c r="BR71">
+        <v>0</v>
+      </c>
+      <c r="BS71">
+        <v>0</v>
+      </c>
+      <c r="BT71">
+        <v>0</v>
+      </c>
+      <c r="BU71">
+        <v>0</v>
+      </c>
+      <c r="BV71">
+        <v>0</v>
+      </c>
+      <c r="BW71">
+        <v>0</v>
+      </c>
+      <c r="BX71">
+        <v>0</v>
+      </c>
+      <c r="BY71">
+        <v>0</v>
+      </c>
+      <c r="BZ71">
+        <v>0</v>
+      </c>
+      <c r="CA71">
+        <v>0</v>
+      </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
+      <c r="CC71">
+        <v>0</v>
+      </c>
+      <c r="CD71">
+        <v>0</v>
+      </c>
+      <c r="CE71">
+        <v>0</v>
+      </c>
+      <c r="CF71">
+        <v>0</v>
+      </c>
+      <c r="CG71">
+        <v>0</v>
+      </c>
+      <c r="CH71">
+        <v>0</v>
+      </c>
+      <c r="CI71">
+        <v>0</v>
+      </c>
+      <c r="CJ71">
+        <v>0</v>
+      </c>
+      <c r="CK71">
+        <v>0</v>
+      </c>
+      <c r="CL71">
+        <v>0</v>
+      </c>
+      <c r="CM71">
+        <v>0</v>
+      </c>
+      <c r="CN71">
+        <v>0</v>
+      </c>
+      <c r="CO71">
+        <v>0</v>
+      </c>
+      <c r="CP71">
+        <v>0</v>
+      </c>
+      <c r="CQ71">
+        <v>0</v>
+      </c>
+      <c r="CR71">
+        <v>0</v>
+      </c>
+      <c r="CS71">
+        <v>0</v>
+      </c>
+      <c r="CT71">
+        <v>0</v>
+      </c>
+      <c r="CU71">
+        <v>0</v>
+      </c>
+      <c r="CV71">
+        <v>0</v>
+      </c>
+      <c r="CW71">
+        <v>0</v>
+      </c>
+      <c r="CX71">
+        <v>0</v>
+      </c>
+      <c r="CY71">
+        <v>0</v>
+      </c>
+      <c r="CZ71">
+        <v>0</v>
+      </c>
+      <c r="DA71">
+        <v>1</v>
+      </c>
+      <c r="DB71">
+        <v>0</v>
+      </c>
+      <c r="DC71">
+        <v>0</v>
+      </c>
+      <c r="DD71">
+        <v>1</v>
+      </c>
+      <c r="DE71">
+        <v>0</v>
+      </c>
+      <c r="DF71">
+        <v>0</v>
+      </c>
+      <c r="DG71">
+        <v>0</v>
+      </c>
+      <c r="DH71">
+        <v>0</v>
+      </c>
+      <c r="DI71">
+        <v>0</v>
+      </c>
+      <c r="DJ71">
+        <v>0</v>
+      </c>
+      <c r="DK71">
+        <v>0</v>
+      </c>
+      <c r="DL71">
+        <v>0</v>
+      </c>
+      <c r="DM71">
+        <v>0</v>
+      </c>
+      <c r="DN71">
+        <v>0</v>
+      </c>
+      <c r="DO71">
+        <v>0</v>
+      </c>
+      <c r="DP71">
+        <v>0</v>
+      </c>
+      <c r="DQ71">
+        <v>0</v>
+      </c>
+      <c r="DR71">
+        <v>0</v>
+      </c>
+      <c r="DS71">
+        <v>0</v>
+      </c>
+      <c r="DT71">
+        <v>0</v>
+      </c>
+      <c r="DU71">
+        <v>0</v>
+      </c>
+      <c r="DV71">
+        <v>0</v>
+      </c>
+      <c r="DW71">
+        <v>0</v>
+      </c>
+      <c r="DX71">
+        <v>0</v>
+      </c>
+      <c r="DY71">
+        <v>0</v>
+      </c>
+      <c r="DZ71">
+        <v>0</v>
+      </c>
+      <c r="EA71">
+        <v>0</v>
+      </c>
+      <c r="EB71">
+        <v>0</v>
+      </c>
+      <c r="EC71">
+        <v>0</v>
+      </c>
+      <c r="ED71">
+        <v>0</v>
+      </c>
+      <c r="EE71">
+        <v>0</v>
+      </c>
+      <c r="EF71">
+        <v>0</v>
+      </c>
+      <c r="EG71">
+        <v>0</v>
+      </c>
+      <c r="EH71">
+        <v>0</v>
+      </c>
+      <c r="EI71">
+        <v>0</v>
+      </c>
+      <c r="EJ71">
+        <v>0</v>
+      </c>
+      <c r="EK71">
+        <v>0</v>
+      </c>
+      <c r="EL71">
+        <v>0</v>
+      </c>
+      <c r="EM71">
+        <v>0</v>
+      </c>
+      <c r="EN71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>0.7</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>0.97906976744184404</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>1</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>1</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+      <c r="BQ72">
+        <v>0</v>
+      </c>
+      <c r="BR72">
+        <v>0</v>
+      </c>
+      <c r="BS72">
+        <v>0</v>
+      </c>
+      <c r="BT72">
+        <v>0</v>
+      </c>
+      <c r="BU72">
+        <v>0</v>
+      </c>
+      <c r="BV72">
+        <v>0</v>
+      </c>
+      <c r="BW72">
+        <v>0</v>
+      </c>
+      <c r="BX72">
+        <v>0</v>
+      </c>
+      <c r="BY72">
+        <v>1</v>
+      </c>
+      <c r="BZ72">
+        <v>0</v>
+      </c>
+      <c r="CA72">
+        <v>0</v>
+      </c>
+      <c r="CB72">
+        <v>0</v>
+      </c>
+      <c r="CC72">
+        <v>0</v>
+      </c>
+      <c r="CD72">
+        <v>0</v>
+      </c>
+      <c r="CE72">
+        <v>0</v>
+      </c>
+      <c r="CF72">
+        <v>0</v>
+      </c>
+      <c r="CG72">
+        <v>0</v>
+      </c>
+      <c r="CH72">
+        <v>0</v>
+      </c>
+      <c r="CI72">
+        <v>0</v>
+      </c>
+      <c r="CJ72">
+        <v>0</v>
+      </c>
+      <c r="CK72">
+        <v>1</v>
+      </c>
+      <c r="CL72">
+        <v>0</v>
+      </c>
+      <c r="CM72">
+        <v>0</v>
+      </c>
+      <c r="CN72">
+        <v>0</v>
+      </c>
+      <c r="CO72">
+        <v>1</v>
+      </c>
+      <c r="CP72">
+        <v>0</v>
+      </c>
+      <c r="CQ72">
+        <v>0</v>
+      </c>
+      <c r="CR72">
+        <v>1</v>
+      </c>
+      <c r="CS72">
+        <v>0</v>
+      </c>
+      <c r="CT72">
+        <v>0</v>
+      </c>
+      <c r="CU72">
+        <v>0</v>
+      </c>
+      <c r="CV72">
+        <v>0</v>
+      </c>
+      <c r="CW72">
+        <v>0</v>
+      </c>
+      <c r="CX72">
+        <v>0</v>
+      </c>
+      <c r="CY72">
+        <v>0</v>
+      </c>
+      <c r="CZ72">
+        <v>0</v>
+      </c>
+      <c r="DA72">
+        <v>0</v>
+      </c>
+      <c r="DB72">
+        <v>0</v>
+      </c>
+      <c r="DC72">
+        <v>0</v>
+      </c>
+      <c r="DD72">
+        <v>0</v>
+      </c>
+      <c r="DE72">
+        <v>0</v>
+      </c>
+      <c r="DF72">
+        <v>0</v>
+      </c>
+      <c r="DG72">
+        <v>0</v>
+      </c>
+      <c r="DH72">
+        <v>0</v>
+      </c>
+      <c r="DI72">
+        <v>1</v>
+      </c>
+      <c r="DJ72">
+        <v>0</v>
+      </c>
+      <c r="DK72">
+        <v>0</v>
+      </c>
+      <c r="DL72">
+        <v>0</v>
+      </c>
+      <c r="DM72">
+        <v>0</v>
+      </c>
+      <c r="DN72">
+        <v>0</v>
+      </c>
+      <c r="DO72">
+        <v>0</v>
+      </c>
+      <c r="DP72">
+        <v>0</v>
+      </c>
+      <c r="DQ72">
+        <v>0</v>
+      </c>
+      <c r="DR72">
+        <v>0</v>
+      </c>
+      <c r="DS72">
+        <v>0</v>
+      </c>
+      <c r="DT72">
+        <v>0</v>
+      </c>
+      <c r="DU72">
+        <v>0</v>
+      </c>
+      <c r="DV72">
+        <v>0</v>
+      </c>
+      <c r="DW72">
+        <v>1</v>
+      </c>
+      <c r="DX72">
+        <v>0</v>
+      </c>
+      <c r="DY72">
+        <v>0</v>
+      </c>
+      <c r="DZ72">
+        <v>0</v>
+      </c>
+      <c r="EA72">
+        <v>1</v>
+      </c>
+      <c r="EB72">
+        <v>0</v>
+      </c>
+      <c r="EC72">
+        <v>0</v>
+      </c>
+      <c r="ED72">
+        <v>0</v>
+      </c>
+      <c r="EE72">
+        <v>0</v>
+      </c>
+      <c r="EF72">
+        <v>0</v>
+      </c>
+      <c r="EG72">
+        <v>0</v>
+      </c>
+      <c r="EH72">
+        <v>0</v>
+      </c>
+      <c r="EI72">
+        <v>0</v>
+      </c>
+      <c r="EJ72">
+        <v>0</v>
+      </c>
+      <c r="EK72">
+        <v>0</v>
+      </c>
+      <c r="EL72">
+        <v>0</v>
+      </c>
+      <c r="EM72">
+        <v>1</v>
+      </c>
+      <c r="EN72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>165</v>
+      </c>
+      <c r="D80">
+        <v>0.323426573426569</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
+      <c r="AF80">
+        <v>2</v>
+      </c>
+      <c r="AG80">
+        <v>2</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
+      <c r="AS80">
+        <v>1</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+      <c r="AU80">
+        <v>1</v>
+      </c>
+      <c r="AV80">
+        <v>2</v>
+      </c>
+      <c r="AW80">
+        <v>1</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>1</v>
+      </c>
+      <c r="AZ80">
+        <v>1</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>1</v>
+      </c>
+      <c r="BD80">
+        <v>1</v>
+      </c>
+      <c r="BE80">
+        <v>1</v>
+      </c>
+      <c r="BF80">
+        <v>1</v>
+      </c>
+      <c r="BG80">
+        <v>1</v>
+      </c>
+      <c r="BH80">
+        <v>1</v>
+      </c>
+      <c r="BI80">
+        <v>1</v>
+      </c>
+      <c r="BJ80">
+        <v>1</v>
+      </c>
+      <c r="BK80">
+        <v>1</v>
+      </c>
+      <c r="BL80">
+        <v>1</v>
+      </c>
+      <c r="BM80">
+        <v>1</v>
+      </c>
+      <c r="BN80">
+        <v>1</v>
+      </c>
+      <c r="BO80">
+        <v>2</v>
+      </c>
+      <c r="BP80">
+        <v>1</v>
+      </c>
+      <c r="BQ80">
+        <v>1</v>
+      </c>
+      <c r="BR80">
+        <v>1</v>
+      </c>
+      <c r="BS80">
+        <v>1</v>
+      </c>
+      <c r="BT80">
+        <v>1</v>
+      </c>
+      <c r="BU80">
+        <v>2</v>
+      </c>
+      <c r="BV80">
+        <v>1</v>
+      </c>
+      <c r="BW80">
+        <v>1</v>
+      </c>
+      <c r="BX80">
+        <v>1</v>
+      </c>
+      <c r="BY80">
+        <v>1</v>
+      </c>
+      <c r="BZ80">
+        <v>1</v>
+      </c>
+      <c r="CA80">
+        <v>1</v>
+      </c>
+      <c r="CB80">
+        <v>1</v>
+      </c>
+      <c r="CC80">
+        <v>1</v>
+      </c>
+      <c r="CD80">
+        <v>1</v>
+      </c>
+      <c r="CE80">
+        <v>1</v>
+      </c>
+      <c r="CF80">
+        <v>1</v>
+      </c>
+      <c r="CG80">
+        <v>1</v>
+      </c>
+      <c r="CH80">
+        <v>1</v>
+      </c>
+      <c r="CI80">
+        <v>1</v>
+      </c>
+      <c r="CJ80">
+        <v>1</v>
+      </c>
+      <c r="CK80">
+        <v>1</v>
+      </c>
+      <c r="CL80">
+        <v>1</v>
+      </c>
+      <c r="CM80">
+        <v>2</v>
+      </c>
+      <c r="CN80">
+        <v>1</v>
+      </c>
+      <c r="CO80">
+        <v>1</v>
+      </c>
+      <c r="CP80">
+        <v>1</v>
+      </c>
+      <c r="CQ80">
+        <v>1</v>
+      </c>
+      <c r="CR80">
+        <v>1</v>
+      </c>
+      <c r="CS80">
+        <v>1</v>
+      </c>
+      <c r="CT80">
+        <v>1</v>
+      </c>
+      <c r="CU80">
+        <v>1</v>
+      </c>
+      <c r="CV80">
+        <v>1</v>
+      </c>
+      <c r="CW80">
+        <v>2</v>
+      </c>
+      <c r="CX80">
+        <v>1</v>
+      </c>
+      <c r="CY80">
+        <v>1</v>
+      </c>
+      <c r="CZ80">
+        <v>2</v>
+      </c>
+      <c r="DA80">
+        <v>1</v>
+      </c>
+      <c r="DB80">
+        <v>1</v>
+      </c>
+      <c r="DC80">
+        <v>1</v>
+      </c>
+      <c r="DD80">
+        <v>2</v>
+      </c>
+      <c r="DE80">
+        <v>1</v>
+      </c>
+      <c r="DF80">
+        <v>2</v>
+      </c>
+      <c r="DG80">
+        <v>1</v>
+      </c>
+      <c r="DH80">
+        <v>1</v>
+      </c>
+      <c r="DI80">
+        <v>1</v>
+      </c>
+      <c r="DJ80">
+        <v>2</v>
+      </c>
+      <c r="DK80">
+        <v>1</v>
+      </c>
+      <c r="DL80">
+        <v>1</v>
+      </c>
+      <c r="DM80">
+        <v>1</v>
+      </c>
+      <c r="DN80">
+        <v>1</v>
+      </c>
+      <c r="DO80">
+        <v>2</v>
+      </c>
+      <c r="DP80">
+        <v>1</v>
+      </c>
+      <c r="DQ80">
+        <v>2</v>
+      </c>
+      <c r="DR80">
+        <v>2</v>
+      </c>
+      <c r="DS80">
+        <v>1</v>
+      </c>
+      <c r="DT80">
+        <v>1</v>
+      </c>
+      <c r="DU80">
+        <v>1</v>
+      </c>
+      <c r="DV80">
+        <v>2</v>
+      </c>
+      <c r="DW80">
+        <v>1</v>
+      </c>
+      <c r="DX80">
+        <v>1</v>
+      </c>
+      <c r="DY80">
+        <v>1</v>
+      </c>
+      <c r="DZ80">
+        <v>2</v>
+      </c>
+      <c r="EA80">
+        <v>1</v>
+      </c>
+      <c r="EB80">
+        <v>1</v>
+      </c>
+      <c r="EC80">
+        <v>2</v>
+      </c>
+      <c r="ED80">
+        <v>1</v>
+      </c>
+      <c r="EE80">
+        <v>2</v>
+      </c>
+      <c r="EF80">
+        <v>1</v>
+      </c>
+      <c r="EG80">
+        <v>1</v>
+      </c>
+      <c r="EH80">
+        <v>2</v>
+      </c>
+      <c r="EI80">
+        <v>1</v>
+      </c>
+      <c r="EJ80">
+        <v>1</v>
+      </c>
+      <c r="EK80">
+        <v>2</v>
+      </c>
+      <c r="EL80">
+        <v>1</v>
+      </c>
+      <c r="EM80">
+        <v>1</v>
+      </c>
+      <c r="EN80">
+        <v>2</v>
+      </c>
+      <c r="EO80">
+        <v>1</v>
+      </c>
+      <c r="EP80">
+        <v>1</v>
+      </c>
+      <c r="EQ80">
+        <v>1</v>
+      </c>
+      <c r="ER80">
+        <v>2</v>
+      </c>
+      <c r="ES80">
+        <v>1</v>
+      </c>
+      <c r="ET80">
+        <v>1</v>
+      </c>
+      <c r="EU80">
+        <v>2</v>
+      </c>
+      <c r="EV80">
+        <v>1</v>
+      </c>
+      <c r="EW80">
+        <v>1</v>
+      </c>
+      <c r="EX80">
+        <v>1</v>
+      </c>
+      <c r="EY80">
+        <v>1</v>
+      </c>
+      <c r="EZ80">
+        <v>1</v>
+      </c>
+      <c r="FA80">
+        <v>1</v>
+      </c>
+      <c r="FB80">
+        <v>1</v>
+      </c>
+      <c r="FC80">
+        <v>1</v>
+      </c>
+      <c r="FD80">
+        <v>1</v>
+      </c>
+      <c r="FE80">
+        <v>2</v>
+      </c>
+      <c r="FF80">
+        <v>1</v>
+      </c>
+      <c r="FG80">
+        <v>2</v>
+      </c>
+      <c r="FH80">
+        <v>1</v>
+      </c>
+      <c r="FI80">
+        <v>2</v>
+      </c>
+      <c r="FJ80">
+        <v>1</v>
+      </c>
+      <c r="FK80">
+        <v>1</v>
+      </c>
+      <c r="FL80">
+        <v>2</v>
+      </c>
+      <c r="FM80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>0.86713286713286397</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>2</v>
+      </c>
+      <c r="X81">
+        <v>2</v>
+      </c>
+      <c r="Y81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>2</v>
+      </c>
+      <c r="AI81">
+        <v>2</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>2</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>2</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+      <c r="AS81">
+        <v>2</v>
+      </c>
+      <c r="AT81">
+        <v>2</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
+        <v>1</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>1</v>
+      </c>
+      <c r="AZ81">
+        <v>1</v>
+      </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>2</v>
+      </c>
+      <c r="BD81">
+        <v>2</v>
+      </c>
+      <c r="BE81">
+        <v>2</v>
+      </c>
+      <c r="BF81">
+        <v>2</v>
+      </c>
+      <c r="BG81">
+        <v>2</v>
+      </c>
+      <c r="BH81">
+        <v>1</v>
+      </c>
+      <c r="BI81">
+        <v>2</v>
+      </c>
+      <c r="BJ81">
+        <v>2</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>2</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>2</v>
+      </c>
+      <c r="BO81">
+        <v>2</v>
+      </c>
+      <c r="BP81">
+        <v>2</v>
+      </c>
+      <c r="BQ81">
+        <v>2</v>
+      </c>
+      <c r="BR81">
+        <v>2</v>
+      </c>
+      <c r="BS81">
+        <v>1</v>
+      </c>
+      <c r="BT81">
+        <v>1</v>
+      </c>
+      <c r="BU81">
+        <v>1</v>
+      </c>
+      <c r="BV81">
+        <v>1</v>
+      </c>
+      <c r="BW81">
+        <v>2</v>
+      </c>
+      <c r="BX81">
+        <v>2</v>
+      </c>
+      <c r="BY81">
+        <v>2</v>
+      </c>
+      <c r="BZ81">
+        <v>2</v>
+      </c>
+      <c r="CA81">
+        <v>2</v>
+      </c>
+      <c r="CB81">
+        <v>2</v>
+      </c>
+      <c r="CC81">
+        <v>2</v>
+      </c>
+      <c r="CD81">
+        <v>1</v>
+      </c>
+      <c r="CE81">
+        <v>1</v>
+      </c>
+      <c r="CF81">
+        <v>2</v>
+      </c>
+      <c r="CG81">
+        <v>2</v>
+      </c>
+      <c r="CH81">
+        <v>2</v>
+      </c>
+      <c r="CI81">
+        <v>2</v>
+      </c>
+      <c r="CJ81">
+        <v>2</v>
+      </c>
+      <c r="CK81">
+        <v>2</v>
+      </c>
+      <c r="CL81">
+        <v>2</v>
+      </c>
+      <c r="CM81">
+        <v>2</v>
+      </c>
+      <c r="CN81">
+        <v>2</v>
+      </c>
+      <c r="CO81">
+        <v>1</v>
+      </c>
+      <c r="CP81">
+        <v>1</v>
+      </c>
+      <c r="CQ81">
+        <v>1</v>
+      </c>
+      <c r="CR81">
+        <v>1</v>
+      </c>
+      <c r="CS81">
+        <v>1</v>
+      </c>
+      <c r="CT81">
+        <v>2</v>
+      </c>
+      <c r="CU81">
+        <v>2</v>
+      </c>
+      <c r="CV81">
+        <v>2</v>
+      </c>
+      <c r="CW81">
+        <v>2</v>
+      </c>
+      <c r="CX81">
+        <v>2</v>
+      </c>
+      <c r="CY81">
+        <v>2</v>
+      </c>
+      <c r="CZ81">
+        <v>2</v>
+      </c>
+      <c r="DA81">
+        <v>2</v>
+      </c>
+      <c r="DB81">
+        <v>1</v>
+      </c>
+      <c r="DC81">
+        <v>1</v>
+      </c>
+      <c r="DD81">
+        <v>2</v>
+      </c>
+      <c r="DE81">
+        <v>2</v>
+      </c>
+      <c r="DF81">
+        <v>2</v>
+      </c>
+      <c r="DG81">
+        <v>1</v>
+      </c>
+      <c r="DH81">
+        <v>1</v>
+      </c>
+      <c r="DI81">
+        <v>1</v>
+      </c>
+      <c r="DJ81">
+        <v>2</v>
+      </c>
+      <c r="DK81">
+        <v>1</v>
+      </c>
+      <c r="DL81">
+        <v>2</v>
+      </c>
+      <c r="DM81">
+        <v>2</v>
+      </c>
+      <c r="DN81">
+        <v>1</v>
+      </c>
+      <c r="DO81">
+        <v>1</v>
+      </c>
+      <c r="DP81">
+        <v>2</v>
+      </c>
+      <c r="DQ81">
+        <v>2</v>
+      </c>
+      <c r="DR81">
+        <v>2</v>
+      </c>
+      <c r="DS81">
+        <v>2</v>
+      </c>
+      <c r="DT81">
+        <v>1</v>
+      </c>
+      <c r="DU81">
+        <v>1</v>
+      </c>
+      <c r="DV81">
+        <v>2</v>
+      </c>
+      <c r="DW81">
+        <v>2</v>
+      </c>
+      <c r="DX81">
+        <v>2</v>
+      </c>
+      <c r="DY81">
+        <v>2</v>
+      </c>
+      <c r="DZ81">
+        <v>1</v>
+      </c>
+      <c r="EA81">
+        <v>1</v>
+      </c>
+      <c r="EB81">
+        <v>2</v>
+      </c>
+      <c r="EC81">
+        <v>2</v>
+      </c>
+      <c r="ED81">
+        <v>2</v>
+      </c>
+      <c r="EE81">
+        <v>2</v>
+      </c>
+      <c r="EF81">
+        <v>1</v>
+      </c>
+      <c r="EG81">
+        <v>1</v>
+      </c>
+      <c r="EH81">
+        <v>2</v>
+      </c>
+      <c r="EI81">
+        <v>2</v>
+      </c>
+      <c r="EJ81">
+        <v>2</v>
+      </c>
+      <c r="EK81">
+        <v>2</v>
+      </c>
+      <c r="EL81">
+        <v>1</v>
+      </c>
+      <c r="EM81">
+        <v>1</v>
+      </c>
+      <c r="EN81">
+        <v>2</v>
+      </c>
+      <c r="EO81">
+        <v>2</v>
+      </c>
+      <c r="EP81">
+        <v>2</v>
+      </c>
+      <c r="EQ81">
+        <v>2</v>
+      </c>
+      <c r="ER81">
+        <v>1</v>
+      </c>
+      <c r="ES81">
+        <v>1</v>
+      </c>
+      <c r="ET81">
+        <v>2</v>
+      </c>
+      <c r="EU81">
+        <v>2</v>
+      </c>
+      <c r="EV81">
+        <v>2</v>
+      </c>
+      <c r="EW81">
+        <v>2</v>
+      </c>
+      <c r="EX81">
+        <v>2</v>
+      </c>
+      <c r="EY81">
+        <v>2</v>
+      </c>
+      <c r="EZ81">
+        <v>2</v>
+      </c>
+      <c r="FA81">
+        <v>2</v>
+      </c>
+      <c r="FB81">
+        <v>2</v>
+      </c>
+      <c r="FC81">
+        <v>2</v>
+      </c>
+      <c r="FD81">
+        <v>2</v>
+      </c>
+      <c r="FE81">
+        <v>2</v>
+      </c>
+      <c r="FF81">
+        <v>2</v>
+      </c>
+      <c r="FG81">
+        <v>2</v>
+      </c>
+      <c r="FH81">
+        <v>2</v>
+      </c>
+      <c r="FI81">
+        <v>2</v>
+      </c>
+      <c r="FJ81">
+        <v>2</v>
+      </c>
+      <c r="FK81">
+        <v>2</v>
+      </c>
+      <c r="FL81">
+        <v>2</v>
+      </c>
+      <c r="FM81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>0.3</v>
+      </c>
+      <c r="C82">
+        <v>86</v>
+      </c>
+      <c r="D82">
+        <v>0.98951048951048803</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <v>1</v>
+      </c>
+      <c r="AW82">
+        <v>1</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>1</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+      <c r="BQ82">
+        <v>0</v>
+      </c>
+      <c r="BR82">
+        <v>0</v>
+      </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+      <c r="BV82">
+        <v>0</v>
+      </c>
+      <c r="BW82">
+        <v>0</v>
+      </c>
+      <c r="BX82">
+        <v>1</v>
+      </c>
+      <c r="BY82">
+        <v>0</v>
+      </c>
+      <c r="BZ82">
+        <v>0</v>
+      </c>
+      <c r="CA82">
+        <v>0</v>
+      </c>
+      <c r="CB82">
+        <v>0</v>
+      </c>
+      <c r="CC82">
+        <v>0</v>
+      </c>
+      <c r="CD82">
+        <v>0</v>
+      </c>
+      <c r="CE82">
+        <v>0</v>
+      </c>
+      <c r="CF82">
+        <v>0</v>
+      </c>
+      <c r="CG82">
+        <v>0</v>
+      </c>
+      <c r="CH82">
+        <v>0</v>
+      </c>
+      <c r="CI82">
+        <v>0</v>
+      </c>
+      <c r="CJ82">
+        <v>0</v>
+      </c>
+      <c r="CK82">
+        <v>1</v>
+      </c>
+      <c r="CL82">
+        <v>0</v>
+      </c>
+      <c r="CM82">
+        <v>0</v>
+      </c>
+      <c r="CN82">
+        <v>0</v>
+      </c>
+      <c r="CO82">
+        <v>0</v>
+      </c>
+      <c r="CP82">
+        <v>0</v>
+      </c>
+      <c r="CQ82">
+        <v>0</v>
+      </c>
+      <c r="CR82">
+        <v>0</v>
+      </c>
+      <c r="CS82">
+        <v>0</v>
+      </c>
+      <c r="CT82">
+        <v>0</v>
+      </c>
+      <c r="CU82">
+        <v>0</v>
+      </c>
+      <c r="CV82">
+        <v>0</v>
+      </c>
+      <c r="CW82">
+        <v>1</v>
+      </c>
+      <c r="CX82">
+        <v>0</v>
+      </c>
+      <c r="CY82">
+        <v>0</v>
+      </c>
+      <c r="CZ82">
+        <v>0</v>
+      </c>
+      <c r="DA82">
+        <v>0</v>
+      </c>
+      <c r="DB82">
+        <v>1</v>
+      </c>
+      <c r="DC82">
+        <v>0</v>
+      </c>
+      <c r="DD82">
+        <v>0</v>
+      </c>
+      <c r="DE82">
+        <v>1</v>
+      </c>
+      <c r="DF82">
+        <v>0</v>
+      </c>
+      <c r="DG82">
+        <v>0</v>
+      </c>
+      <c r="DH82">
+        <v>0</v>
+      </c>
+      <c r="DI82">
+        <v>0</v>
+      </c>
+      <c r="DJ82">
+        <v>0</v>
+      </c>
+      <c r="DK82">
+        <v>0</v>
+      </c>
+      <c r="DL82">
+        <v>0</v>
+      </c>
+      <c r="DM82">
+        <v>1</v>
+      </c>
+      <c r="DN82">
+        <v>0</v>
+      </c>
+      <c r="DO82">
+        <v>0</v>
+      </c>
+      <c r="DP82">
+        <v>1</v>
+      </c>
+      <c r="DQ82">
+        <v>0</v>
+      </c>
+      <c r="DR82">
+        <v>0</v>
+      </c>
+      <c r="DS82">
+        <v>0</v>
+      </c>
+      <c r="DT82">
+        <v>0</v>
+      </c>
+      <c r="DU82">
+        <v>0</v>
+      </c>
+      <c r="DV82">
+        <v>1</v>
+      </c>
+      <c r="DW82">
+        <v>0</v>
+      </c>
+      <c r="DX82">
+        <v>0</v>
+      </c>
+      <c r="DY82">
+        <v>0</v>
+      </c>
+      <c r="DZ82">
+        <v>0</v>
+      </c>
+      <c r="EA82">
+        <v>0</v>
+      </c>
+      <c r="EB82">
+        <v>0</v>
+      </c>
+      <c r="EC82">
+        <v>1</v>
+      </c>
+      <c r="ED82">
+        <v>0</v>
+      </c>
+      <c r="EE82">
+        <v>0</v>
+      </c>
+      <c r="EF82">
+        <v>1</v>
+      </c>
+      <c r="EG82">
+        <v>1</v>
+      </c>
+      <c r="EH82">
+        <v>0</v>
+      </c>
+      <c r="EI82">
+        <v>1</v>
+      </c>
+      <c r="EJ82">
+        <v>0</v>
+      </c>
+      <c r="EK82">
+        <v>0</v>
+      </c>
+      <c r="EL82">
+        <v>0</v>
+      </c>
+      <c r="EM82">
+        <v>0</v>
+      </c>
+      <c r="EN82">
+        <v>0</v>
+      </c>
+      <c r="EO82">
+        <v>0</v>
+      </c>
+      <c r="EP82">
+        <v>0</v>
+      </c>
+      <c r="EQ82">
+        <v>0</v>
+      </c>
+      <c r="ER82">
+        <v>0</v>
+      </c>
+      <c r="ES82">
+        <v>0</v>
+      </c>
+      <c r="ET82">
+        <v>1</v>
+      </c>
+      <c r="EU82">
+        <v>0</v>
+      </c>
+      <c r="EV82">
+        <v>1</v>
+      </c>
+      <c r="EW82">
+        <v>0</v>
+      </c>
+      <c r="EX82">
+        <v>0</v>
+      </c>
+      <c r="EY82">
+        <v>0</v>
+      </c>
+      <c r="EZ82">
+        <v>0</v>
+      </c>
+      <c r="FA82">
+        <v>0</v>
+      </c>
+      <c r="FB82">
+        <v>1</v>
+      </c>
+      <c r="FC82">
+        <v>0</v>
+      </c>
+      <c r="FD82">
+        <v>0</v>
+      </c>
+      <c r="FE82">
+        <v>0</v>
+      </c>
+      <c r="FF82">
+        <v>1</v>
+      </c>
+      <c r="FG82">
+        <v>0</v>
+      </c>
+      <c r="FH82">
+        <v>1</v>
+      </c>
+      <c r="FI82">
+        <v>0</v>
+      </c>
+      <c r="FJ82">
+        <v>0</v>
+      </c>
+      <c r="FK82">
+        <v>0</v>
+      </c>
+      <c r="FL82">
+        <v>1</v>
+      </c>
+      <c r="FM82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>0.4</v>
+      </c>
+      <c r="C83">
+        <v>59</v>
+      </c>
+      <c r="D83">
+        <v>0.98601398601398504</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>1</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>1</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+      <c r="BQ83">
+        <v>0</v>
+      </c>
+      <c r="BR83">
+        <v>0</v>
+      </c>
+      <c r="BS83">
+        <v>0</v>
+      </c>
+      <c r="BT83">
+        <v>0</v>
+      </c>
+      <c r="BU83">
+        <v>0</v>
+      </c>
+      <c r="BV83">
+        <v>0</v>
+      </c>
+      <c r="BW83">
+        <v>0</v>
+      </c>
+      <c r="BX83">
+        <v>1</v>
+      </c>
+      <c r="BY83">
+        <v>0</v>
+      </c>
+      <c r="BZ83">
+        <v>0</v>
+      </c>
+      <c r="CA83">
+        <v>0</v>
+      </c>
+      <c r="CB83">
+        <v>0</v>
+      </c>
+      <c r="CC83">
+        <v>0</v>
+      </c>
+      <c r="CD83">
+        <v>0</v>
+      </c>
+      <c r="CE83">
+        <v>0</v>
+      </c>
+      <c r="CF83">
+        <v>0</v>
+      </c>
+      <c r="CG83">
+        <v>0</v>
+      </c>
+      <c r="CH83">
+        <v>0</v>
+      </c>
+      <c r="CI83">
+        <v>0</v>
+      </c>
+      <c r="CJ83">
+        <v>0</v>
+      </c>
+      <c r="CK83">
+        <v>0</v>
+      </c>
+      <c r="CL83">
+        <v>0</v>
+      </c>
+      <c r="CM83">
+        <v>0</v>
+      </c>
+      <c r="CN83">
+        <v>1</v>
+      </c>
+      <c r="CO83">
+        <v>0</v>
+      </c>
+      <c r="CP83">
+        <v>0</v>
+      </c>
+      <c r="CQ83">
+        <v>0</v>
+      </c>
+      <c r="CR83">
+        <v>0</v>
+      </c>
+      <c r="CS83">
+        <v>0</v>
+      </c>
+      <c r="CT83">
+        <v>0</v>
+      </c>
+      <c r="CU83">
+        <v>1</v>
+      </c>
+      <c r="CV83">
+        <v>0</v>
+      </c>
+      <c r="CW83">
+        <v>0</v>
+      </c>
+      <c r="CX83">
+        <v>0</v>
+      </c>
+      <c r="CY83">
+        <v>0</v>
+      </c>
+      <c r="CZ83">
+        <v>0</v>
+      </c>
+      <c r="DA83">
+        <v>0</v>
+      </c>
+      <c r="DB83">
+        <v>1</v>
+      </c>
+      <c r="DC83">
+        <v>0</v>
+      </c>
+      <c r="DD83">
+        <v>0</v>
+      </c>
+      <c r="DE83">
+        <v>1</v>
+      </c>
+      <c r="DF83">
+        <v>1</v>
+      </c>
+      <c r="DG83">
+        <v>0</v>
+      </c>
+      <c r="DH83">
+        <v>0</v>
+      </c>
+      <c r="DI83">
+        <v>0</v>
+      </c>
+      <c r="DJ83">
+        <v>0</v>
+      </c>
+      <c r="DK83">
+        <v>1</v>
+      </c>
+      <c r="DL83">
+        <v>0</v>
+      </c>
+      <c r="DM83">
+        <v>0</v>
+      </c>
+      <c r="DN83">
+        <v>0</v>
+      </c>
+      <c r="DO83">
+        <v>0</v>
+      </c>
+      <c r="DP83">
+        <v>0</v>
+      </c>
+      <c r="DQ83">
+        <v>0</v>
+      </c>
+      <c r="DR83">
+        <v>0</v>
+      </c>
+      <c r="DS83">
+        <v>0</v>
+      </c>
+      <c r="DT83">
+        <v>0</v>
+      </c>
+      <c r="DU83">
+        <v>0</v>
+      </c>
+      <c r="DV83">
+        <v>0</v>
+      </c>
+      <c r="DW83">
+        <v>0</v>
+      </c>
+      <c r="DX83">
+        <v>0</v>
+      </c>
+      <c r="DY83">
+        <v>1</v>
+      </c>
+      <c r="DZ83">
+        <v>0</v>
+      </c>
+      <c r="EA83">
+        <v>0</v>
+      </c>
+      <c r="EB83">
+        <v>1</v>
+      </c>
+      <c r="EC83">
+        <v>0</v>
+      </c>
+      <c r="ED83">
+        <v>0</v>
+      </c>
+      <c r="EE83">
+        <v>0</v>
+      </c>
+      <c r="EF83">
+        <v>0</v>
+      </c>
+      <c r="EG83">
+        <v>1</v>
+      </c>
+      <c r="EH83">
+        <v>0</v>
+      </c>
+      <c r="EI83">
+        <v>1</v>
+      </c>
+      <c r="EJ83">
+        <v>0</v>
+      </c>
+      <c r="EK83">
+        <v>0</v>
+      </c>
+      <c r="EL83">
+        <v>0</v>
+      </c>
+      <c r="EM83">
+        <v>0</v>
+      </c>
+      <c r="EN83">
+        <v>0</v>
+      </c>
+      <c r="EO83">
+        <v>0</v>
+      </c>
+      <c r="EP83">
+        <v>0</v>
+      </c>
+      <c r="EQ83">
+        <v>1</v>
+      </c>
+      <c r="ER83">
+        <v>0</v>
+      </c>
+      <c r="ES83">
+        <v>0</v>
+      </c>
+      <c r="ET83">
+        <v>1</v>
+      </c>
+      <c r="EU83">
+        <v>0</v>
+      </c>
+      <c r="EV83">
+        <v>1</v>
+      </c>
+      <c r="EW83">
+        <v>0</v>
+      </c>
+      <c r="EX83">
+        <v>0</v>
+      </c>
+      <c r="EY83">
+        <v>0</v>
+      </c>
+      <c r="EZ83">
+        <v>0</v>
+      </c>
+      <c r="FA83">
+        <v>0</v>
+      </c>
+      <c r="FB83">
+        <v>1</v>
+      </c>
+      <c r="FC83">
+        <v>0</v>
+      </c>
+      <c r="FD83">
+        <v>0</v>
+      </c>
+      <c r="FE83">
+        <v>0</v>
+      </c>
+      <c r="FF83">
+        <v>1</v>
+      </c>
+      <c r="FG83">
+        <v>0</v>
+      </c>
+      <c r="FH83">
+        <v>1</v>
+      </c>
+      <c r="FI83">
+        <v>0</v>
+      </c>
+      <c r="FJ83">
+        <v>0</v>
+      </c>
+      <c r="FK83">
+        <v>1</v>
+      </c>
+      <c r="FL83">
+        <v>0</v>
+      </c>
+      <c r="FM83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>0.5</v>
+      </c>
+      <c r="C84">
+        <v>46</v>
+      </c>
+      <c r="D84">
+        <v>0.98426573426573305</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>1</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>0</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
+      <c r="BQ84">
+        <v>0</v>
+      </c>
+      <c r="BR84">
+        <v>0</v>
+      </c>
+      <c r="BS84">
+        <v>0</v>
+      </c>
+      <c r="BT84">
+        <v>0</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+      <c r="BV84">
+        <v>0</v>
+      </c>
+      <c r="BW84">
+        <v>0</v>
+      </c>
+      <c r="BX84">
+        <v>0</v>
+      </c>
+      <c r="BY84">
+        <v>0</v>
+      </c>
+      <c r="BZ84">
+        <v>1</v>
+      </c>
+      <c r="CA84">
+        <v>0</v>
+      </c>
+      <c r="CB84">
+        <v>0</v>
+      </c>
+      <c r="CC84">
+        <v>0</v>
+      </c>
+      <c r="CD84">
+        <v>0</v>
+      </c>
+      <c r="CE84">
+        <v>0</v>
+      </c>
+      <c r="CF84">
+        <v>0</v>
+      </c>
+      <c r="CG84">
+        <v>0</v>
+      </c>
+      <c r="CH84">
+        <v>0</v>
+      </c>
+      <c r="CI84">
+        <v>0</v>
+      </c>
+      <c r="CJ84">
+        <v>0</v>
+      </c>
+      <c r="CK84">
+        <v>0</v>
+      </c>
+      <c r="CL84">
+        <v>0</v>
+      </c>
+      <c r="CM84">
+        <v>0</v>
+      </c>
+      <c r="CN84">
+        <v>1</v>
+      </c>
+      <c r="CO84">
+        <v>0</v>
+      </c>
+      <c r="CP84">
+        <v>0</v>
+      </c>
+      <c r="CQ84">
+        <v>0</v>
+      </c>
+      <c r="CR84">
+        <v>0</v>
+      </c>
+      <c r="CS84">
+        <v>0</v>
+      </c>
+      <c r="CT84">
+        <v>0</v>
+      </c>
+      <c r="CU84">
+        <v>1</v>
+      </c>
+      <c r="CV84">
+        <v>0</v>
+      </c>
+      <c r="CW84">
+        <v>0</v>
+      </c>
+      <c r="CX84">
+        <v>0</v>
+      </c>
+      <c r="CY84">
+        <v>0</v>
+      </c>
+      <c r="CZ84">
+        <v>0</v>
+      </c>
+      <c r="DA84">
+        <v>0</v>
+      </c>
+      <c r="DB84">
+        <v>0</v>
+      </c>
+      <c r="DC84">
+        <v>0</v>
+      </c>
+      <c r="DD84">
+        <v>0</v>
+      </c>
+      <c r="DE84">
+        <v>0</v>
+      </c>
+      <c r="DF84">
+        <v>0</v>
+      </c>
+      <c r="DG84">
+        <v>0</v>
+      </c>
+      <c r="DH84">
+        <v>0</v>
+      </c>
+      <c r="DI84">
+        <v>0</v>
+      </c>
+      <c r="DJ84">
+        <v>0</v>
+      </c>
+      <c r="DK84">
+        <v>1</v>
+      </c>
+      <c r="DL84">
+        <v>0</v>
+      </c>
+      <c r="DM84">
+        <v>0</v>
+      </c>
+      <c r="DN84">
+        <v>0</v>
+      </c>
+      <c r="DO84">
+        <v>0</v>
+      </c>
+      <c r="DP84">
+        <v>0</v>
+      </c>
+      <c r="DQ84">
+        <v>0</v>
+      </c>
+      <c r="DR84">
+        <v>0</v>
+      </c>
+      <c r="DS84">
+        <v>0</v>
+      </c>
+      <c r="DT84">
+        <v>0</v>
+      </c>
+      <c r="DU84">
+        <v>0</v>
+      </c>
+      <c r="DV84">
+        <v>0</v>
+      </c>
+      <c r="DW84">
+        <v>0</v>
+      </c>
+      <c r="DX84">
+        <v>0</v>
+      </c>
+      <c r="DY84">
+        <v>0</v>
+      </c>
+      <c r="DZ84">
+        <v>0</v>
+      </c>
+      <c r="EA84">
+        <v>0</v>
+      </c>
+      <c r="EB84">
+        <v>0</v>
+      </c>
+      <c r="EC84">
+        <v>0</v>
+      </c>
+      <c r="ED84">
+        <v>0</v>
+      </c>
+      <c r="EE84">
+        <v>0</v>
+      </c>
+      <c r="EF84">
+        <v>0</v>
+      </c>
+      <c r="EG84">
+        <v>0</v>
+      </c>
+      <c r="EH84">
+        <v>0</v>
+      </c>
+      <c r="EI84">
+        <v>0</v>
+      </c>
+      <c r="EJ84">
+        <v>0</v>
+      </c>
+      <c r="EK84">
+        <v>0</v>
+      </c>
+      <c r="EL84">
+        <v>0</v>
+      </c>
+      <c r="EM84">
+        <v>0</v>
+      </c>
+      <c r="EN84">
+        <v>0</v>
+      </c>
+      <c r="EO84">
+        <v>0</v>
+      </c>
+      <c r="EP84">
+        <v>0</v>
+      </c>
+      <c r="EQ84">
+        <v>0</v>
+      </c>
+      <c r="ER84">
+        <v>1</v>
+      </c>
+      <c r="ES84">
+        <v>1</v>
+      </c>
+      <c r="ET84">
+        <v>0</v>
+      </c>
+      <c r="EU84">
+        <v>1</v>
+      </c>
+      <c r="EV84">
+        <v>0</v>
+      </c>
+      <c r="EW84">
+        <v>0</v>
+      </c>
+      <c r="EX84">
+        <v>0</v>
+      </c>
+      <c r="EY84">
+        <v>1</v>
+      </c>
+      <c r="EZ84">
+        <v>0</v>
+      </c>
+      <c r="FA84">
+        <v>1</v>
+      </c>
+      <c r="FB84">
+        <v>0</v>
+      </c>
+      <c r="FC84">
+        <v>0</v>
+      </c>
+      <c r="FD84">
+        <v>0</v>
+      </c>
+      <c r="FE84">
+        <v>0</v>
+      </c>
+      <c r="FF84">
+        <v>1</v>
+      </c>
+      <c r="FG84">
+        <v>0</v>
+      </c>
+      <c r="FH84">
+        <v>0</v>
+      </c>
+      <c r="FI84">
+        <v>0</v>
+      </c>
+      <c r="FJ84">
+        <v>0</v>
+      </c>
+      <c r="FK84">
+        <v>0</v>
+      </c>
+      <c r="FL84">
+        <v>0</v>
+      </c>
+      <c r="FM84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>0.6</v>
+      </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85">
+        <v>0.98251748251748094</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>1</v>
+      </c>
+      <c r="BQ85">
+        <v>0</v>
+      </c>
+      <c r="BR85">
+        <v>0</v>
+      </c>
+      <c r="BS85">
+        <v>0</v>
+      </c>
+      <c r="BT85">
+        <v>0</v>
+      </c>
+      <c r="BU85">
+        <v>0</v>
+      </c>
+      <c r="BV85">
+        <v>0</v>
+      </c>
+      <c r="BW85">
+        <v>0</v>
+      </c>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BY85">
+        <v>0</v>
+      </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
+      <c r="CA85">
+        <v>0</v>
+      </c>
+      <c r="CB85">
+        <v>0</v>
+      </c>
+      <c r="CC85">
+        <v>0</v>
+      </c>
+      <c r="CD85">
+        <v>0</v>
+      </c>
+      <c r="CE85">
+        <v>0</v>
+      </c>
+      <c r="CF85">
+        <v>0</v>
+      </c>
+      <c r="CG85">
+        <v>0</v>
+      </c>
+      <c r="CH85">
+        <v>0</v>
+      </c>
+      <c r="CI85">
+        <v>0</v>
+      </c>
+      <c r="CJ85">
+        <v>0</v>
+      </c>
+      <c r="CK85">
+        <v>0</v>
+      </c>
+      <c r="CL85">
+        <v>0</v>
+      </c>
+      <c r="CM85">
+        <v>0</v>
+      </c>
+      <c r="CN85">
+        <v>1</v>
+      </c>
+      <c r="CO85">
+        <v>0</v>
+      </c>
+      <c r="CP85">
+        <v>0</v>
+      </c>
+      <c r="CQ85">
+        <v>0</v>
+      </c>
+      <c r="CR85">
+        <v>0</v>
+      </c>
+      <c r="CS85">
+        <v>0</v>
+      </c>
+      <c r="CT85">
+        <v>0</v>
+      </c>
+      <c r="CU85">
+        <v>1</v>
+      </c>
+      <c r="CV85">
+        <v>0</v>
+      </c>
+      <c r="CW85">
+        <v>0</v>
+      </c>
+      <c r="CX85">
+        <v>0</v>
+      </c>
+      <c r="CY85">
+        <v>0</v>
+      </c>
+      <c r="CZ85">
+        <v>0</v>
+      </c>
+      <c r="DA85">
+        <v>0</v>
+      </c>
+      <c r="DB85">
+        <v>0</v>
+      </c>
+      <c r="DC85">
+        <v>0</v>
+      </c>
+      <c r="DD85">
+        <v>0</v>
+      </c>
+      <c r="DE85">
+        <v>0</v>
+      </c>
+      <c r="DF85">
+        <v>0</v>
+      </c>
+      <c r="DG85">
+        <v>0</v>
+      </c>
+      <c r="DH85">
+        <v>0</v>
+      </c>
+      <c r="DI85">
+        <v>0</v>
+      </c>
+      <c r="DJ85">
+        <v>0</v>
+      </c>
+      <c r="DK85">
+        <v>1</v>
+      </c>
+      <c r="DL85">
+        <v>0</v>
+      </c>
+      <c r="DM85">
+        <v>0</v>
+      </c>
+      <c r="DN85">
+        <v>0</v>
+      </c>
+      <c r="DO85">
+        <v>0</v>
+      </c>
+      <c r="DP85">
+        <v>0</v>
+      </c>
+      <c r="DQ85">
+        <v>0</v>
+      </c>
+      <c r="DR85">
+        <v>0</v>
+      </c>
+      <c r="DS85">
+        <v>0</v>
+      </c>
+      <c r="DT85">
+        <v>0</v>
+      </c>
+      <c r="DU85">
+        <v>0</v>
+      </c>
+      <c r="DV85">
+        <v>0</v>
+      </c>
+      <c r="DW85">
+        <v>0</v>
+      </c>
+      <c r="DX85">
+        <v>0</v>
+      </c>
+      <c r="DY85">
+        <v>0</v>
+      </c>
+      <c r="DZ85">
+        <v>0</v>
+      </c>
+      <c r="EA85">
+        <v>0</v>
+      </c>
+      <c r="EB85">
+        <v>0</v>
+      </c>
+      <c r="EC85">
+        <v>1</v>
+      </c>
+      <c r="ED85">
+        <v>0</v>
+      </c>
+      <c r="EE85">
+        <v>0</v>
+      </c>
+      <c r="EF85">
+        <v>0</v>
+      </c>
+      <c r="EG85">
+        <v>0</v>
+      </c>
+      <c r="EH85">
+        <v>0</v>
+      </c>
+      <c r="EI85">
+        <v>0</v>
+      </c>
+      <c r="EJ85">
+        <v>0</v>
+      </c>
+      <c r="EK85">
+        <v>0</v>
+      </c>
+      <c r="EL85">
+        <v>0</v>
+      </c>
+      <c r="EM85">
+        <v>0</v>
+      </c>
+      <c r="EN85">
+        <v>0</v>
+      </c>
+      <c r="EO85">
+        <v>0</v>
+      </c>
+      <c r="EP85">
+        <v>0</v>
+      </c>
+      <c r="EQ85">
+        <v>0</v>
+      </c>
+      <c r="ER85">
+        <v>0</v>
+      </c>
+      <c r="ES85">
+        <v>0</v>
+      </c>
+      <c r="ET85">
+        <v>0</v>
+      </c>
+      <c r="EU85">
+        <v>0</v>
+      </c>
+      <c r="EV85">
+        <v>0</v>
+      </c>
+      <c r="EW85">
+        <v>0</v>
+      </c>
+      <c r="EX85">
+        <v>0</v>
+      </c>
+      <c r="EY85">
+        <v>0</v>
+      </c>
+      <c r="EZ85">
+        <v>0</v>
+      </c>
+      <c r="FA85">
+        <v>0</v>
+      </c>
+      <c r="FB85">
+        <v>0</v>
+      </c>
+      <c r="FC85">
+        <v>0</v>
+      </c>
+      <c r="FD85">
+        <v>0</v>
+      </c>
+      <c r="FE85">
+        <v>0</v>
+      </c>
+      <c r="FF85">
+        <v>0</v>
+      </c>
+      <c r="FG85">
+        <v>0</v>
+      </c>
+      <c r="FH85">
+        <v>0</v>
+      </c>
+      <c r="FI85">
+        <v>0</v>
+      </c>
+      <c r="FJ85">
+        <v>0</v>
+      </c>
+      <c r="FK85">
+        <v>0</v>
+      </c>
+      <c r="FL85">
+        <v>0</v>
+      </c>
+      <c r="FM85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:169" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>0.7</v>
+      </c>
+      <c r="C86">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>0.98251748251748094</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>1</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+      <c r="BQ86">
+        <v>0</v>
+      </c>
+      <c r="BR86">
+        <v>0</v>
+      </c>
+      <c r="BS86">
+        <v>0</v>
+      </c>
+      <c r="BT86">
+        <v>0</v>
+      </c>
+      <c r="BU86">
+        <v>0</v>
+      </c>
+      <c r="BV86">
+        <v>1</v>
+      </c>
+      <c r="BW86">
+        <v>0</v>
+      </c>
+      <c r="BX86">
+        <v>0</v>
+      </c>
+      <c r="BY86">
+        <v>0</v>
+      </c>
+      <c r="BZ86">
+        <v>0</v>
+      </c>
+      <c r="CA86">
+        <v>0</v>
+      </c>
+      <c r="CB86">
+        <v>0</v>
+      </c>
+      <c r="CC86">
+        <v>0</v>
+      </c>
+      <c r="CD86">
+        <v>0</v>
+      </c>
+      <c r="CE86">
+        <v>0</v>
+      </c>
+      <c r="CF86">
+        <v>0</v>
+      </c>
+      <c r="CG86">
+        <v>0</v>
+      </c>
+      <c r="CH86">
+        <v>0</v>
+      </c>
+      <c r="CI86">
+        <v>0</v>
+      </c>
+      <c r="CJ86">
+        <v>1</v>
+      </c>
+      <c r="CK86">
+        <v>0</v>
+      </c>
+      <c r="CL86">
+        <v>0</v>
+      </c>
+      <c r="CM86">
+        <v>0</v>
+      </c>
+      <c r="CN86">
+        <v>0</v>
+      </c>
+      <c r="CO86">
+        <v>0</v>
+      </c>
+      <c r="CP86">
+        <v>0</v>
+      </c>
+      <c r="CQ86">
+        <v>0</v>
+      </c>
+      <c r="CR86">
+        <v>0</v>
+      </c>
+      <c r="CS86">
+        <v>0</v>
+      </c>
+      <c r="CT86">
+        <v>1</v>
+      </c>
+      <c r="CU86">
+        <v>0</v>
+      </c>
+      <c r="CV86">
+        <v>0</v>
+      </c>
+      <c r="CW86">
+        <v>0</v>
+      </c>
+      <c r="CX86">
+        <v>0</v>
+      </c>
+      <c r="CY86">
+        <v>0</v>
+      </c>
+      <c r="CZ86">
+        <v>0</v>
+      </c>
+      <c r="DA86">
+        <v>0</v>
+      </c>
+      <c r="DB86">
+        <v>0</v>
+      </c>
+      <c r="DC86">
+        <v>0</v>
+      </c>
+      <c r="DD86">
+        <v>0</v>
+      </c>
+      <c r="DE86">
+        <v>0</v>
+      </c>
+      <c r="DF86">
+        <v>0</v>
+      </c>
+      <c r="DG86">
+        <v>0</v>
+      </c>
+      <c r="DH86">
+        <v>0</v>
+      </c>
+      <c r="DI86">
+        <v>0</v>
+      </c>
+      <c r="DJ86">
+        <v>0</v>
+      </c>
+      <c r="DK86">
+        <v>0</v>
+      </c>
+      <c r="DL86">
+        <v>0</v>
+      </c>
+      <c r="DM86">
+        <v>0</v>
+      </c>
+      <c r="DN86">
+        <v>0</v>
+      </c>
+      <c r="DO86">
+        <v>0</v>
+      </c>
+      <c r="DP86">
+        <v>0</v>
+      </c>
+      <c r="DQ86">
+        <v>0</v>
+      </c>
+      <c r="DR86">
+        <v>0</v>
+      </c>
+      <c r="DS86">
+        <v>0</v>
+      </c>
+      <c r="DT86">
+        <v>0</v>
+      </c>
+      <c r="DU86">
+        <v>0</v>
+      </c>
+      <c r="DV86">
+        <v>0</v>
+      </c>
+      <c r="DW86">
+        <v>0</v>
+      </c>
+      <c r="DX86">
+        <v>0</v>
+      </c>
+      <c r="DY86">
+        <v>0</v>
+      </c>
+      <c r="DZ86">
+        <v>0</v>
+      </c>
+      <c r="EA86">
+        <v>0</v>
+      </c>
+      <c r="EB86">
+        <v>0</v>
+      </c>
+      <c r="EC86">
+        <v>0</v>
+      </c>
+      <c r="ED86">
+        <v>0</v>
+      </c>
+      <c r="EE86">
+        <v>0</v>
+      </c>
+      <c r="EF86">
+        <v>0</v>
+      </c>
+      <c r="EG86">
+        <v>0</v>
+      </c>
+      <c r="EH86">
+        <v>0</v>
+      </c>
+      <c r="EI86">
+        <v>0</v>
+      </c>
+      <c r="EJ86">
+        <v>0</v>
+      </c>
+      <c r="EK86">
+        <v>0</v>
+      </c>
+      <c r="EL86">
+        <v>0</v>
+      </c>
+      <c r="EM86">
+        <v>0</v>
+      </c>
+      <c r="EN86">
+        <v>0</v>
+      </c>
+      <c r="EO86">
+        <v>0</v>
+      </c>
+      <c r="EP86">
+        <v>0</v>
+      </c>
+      <c r="EQ86">
+        <v>0</v>
+      </c>
+      <c r="ER86">
+        <v>0</v>
+      </c>
+      <c r="ES86">
+        <v>0</v>
+      </c>
+      <c r="ET86">
+        <v>0</v>
+      </c>
+      <c r="EU86">
+        <v>0</v>
+      </c>
+      <c r="EV86">
+        <v>0</v>
+      </c>
+      <c r="EW86">
+        <v>0</v>
+      </c>
+      <c r="EX86">
+        <v>0</v>
+      </c>
+      <c r="EY86">
+        <v>0</v>
+      </c>
+      <c r="EZ86">
+        <v>0</v>
+      </c>
+      <c r="FA86">
+        <v>0</v>
+      </c>
+      <c r="FB86">
+        <v>0</v>
+      </c>
+      <c r="FC86">
+        <v>0</v>
+      </c>
+      <c r="FD86">
+        <v>0</v>
+      </c>
+      <c r="FE86">
+        <v>0</v>
+      </c>
+      <c r="FF86">
+        <v>0</v>
+      </c>
+      <c r="FG86">
+        <v>0</v>
+      </c>
+      <c r="FH86">
+        <v>0</v>
+      </c>
+      <c r="FI86">
+        <v>0</v>
+      </c>
+      <c r="FJ86">
+        <v>0</v>
+      </c>
+      <c r="FK86">
+        <v>0</v>
+      </c>
+      <c r="FL86">
+        <v>0</v>
+      </c>
+      <c r="FM86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>